--- a/Datasets/Anti-inflammatory Diclo.xlsx
+++ b/Datasets/Anti-inflammatory Diclo.xlsx
@@ -1,12 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lakna\Desktop\STAT DEMOS\Statistical Consultancy\Determining-anti-tumorigenic-properties-of-aerial-roots\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B271F-5468-41F6-BE1C-FC3C9A7DA323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,30 +56,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -67,51 +91,54 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -301,23 +328,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -337,12 +369,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>0.76</v>
@@ -353,80 +385,80 @@
       <c r="E2" s="4">
         <v>0.7</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F8" si="1">((E$2-E2)/E$2)*100</f>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F8" si="0">((E$2-E2)/E$2)*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4">
-        <v>0.691</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D3" s="4">
         <v>0.06</v>
       </c>
       <c r="E3" s="4">
-        <v>0.631</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" si="1"/>
-        <v>9.857142857</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8571428571428505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C4" s="4">
-        <v>0.632</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D4" s="4">
         <v>0.06</v>
       </c>
       <c r="E4" s="4">
-        <v>0.572</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
-        <v>18.28571429</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>18.285714285714288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="C5" s="4">
-        <v>0.541</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="D5" s="4">
         <v>0.06</v>
       </c>
       <c r="E5" s="4">
-        <v>0.481</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
-        <v>31.28571429</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>31.285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="C6" s="4">
         <v>0.47</v>
@@ -437,17 +469,17 @@
       <c r="E6" s="4">
         <v>0.41</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>41.42857143</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>41.428571428571423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="4">
         <v>0.35</v>
@@ -456,61 +488,61 @@
         <v>0.06</v>
       </c>
       <c r="E7" s="4">
-        <v>0.29</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
-        <v>58.57142857</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>1.0</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>58.571428571428577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C8" s="4">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D8" s="4">
         <v>0.06</v>
       </c>
       <c r="E8" s="4">
-        <v>0.198</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>71.71428571</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6">
-        <v>2.0</v>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>71.714285714285722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2</v>
       </c>
       <c r="B9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>0.761</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="D9" s="4">
         <v>0.06</v>
       </c>
       <c r="E9" s="4">
-        <v>0.701</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" ref="F9:F15" si="2">((E$9-E9)/E$9)*100</f>
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:F15" si="1">((E$9-E9)/E$9)*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6">
-        <v>2.0</v>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4">
         <v>0.68</v>
@@ -521,17 +553,17 @@
       <c r="E10" s="4">
         <v>0.62</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>11.55492154</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>2.0</v>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>11.554921540656201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4">
         <v>0.623</v>
@@ -540,19 +572,19 @@
         <v>0.06</v>
       </c>
       <c r="E11" s="4">
-        <v>0.563</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>19.68616262</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>2.0</v>
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>19.686162624821687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="C12" s="4">
         <v>0.53</v>
@@ -563,75 +595,75 @@
       <c r="E12" s="4">
         <v>0.47</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>32.95292439</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>2.0</v>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>32.952924393723251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="C13" s="4">
-        <v>0.457</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D13" s="4">
         <v>0.06</v>
       </c>
       <c r="E13" s="4">
-        <v>0.397</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>43.36661912</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>43.366619115549213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="4">
-        <v>0.381</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="D14" s="4">
         <v>0.06</v>
       </c>
       <c r="E14" s="4">
-        <v>0.321</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>54.20827389</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>54.208273894436523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="C15" s="4">
-        <v>0.263</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D15" s="4">
         <v>0.06</v>
       </c>
       <c r="E15" s="4">
-        <v>0.203</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>71.04136947</v>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>71.041369472182595</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>